--- a/anova_results_mp_PFOA_PFOS.xlsx
+++ b/anova_results_mp_PFOA_PFOS.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00237046219552392</v>
+        <v>187.777605022258</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00237046219552392</v>
+        <v>187.777605022258</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4.00000001157923</v>
+        <v>9.00000000007361</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00860497734491075</v>
+        <v>0.497546156584981</v>
       </c>
       <c r="G2" t="n">
-        <v>0.930552178519875</v>
+        <v>0.498428560649881</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.563315639493777</v>
+        <v>762.755555555556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.281657819746888</v>
+        <v>381.377777777778</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>7.99999997380533</v>
+        <v>8.9999999997408</v>
       </c>
       <c r="F3" t="n">
-        <v>1.02244159915963</v>
+        <v>1.01052011776251</v>
       </c>
       <c r="G3" t="n">
-        <v>0.402328115973256</v>
+        <v>0.401873756889871</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>2.82286428889645</v>
+        <v>2173.95555555556</v>
       </c>
       <c r="C4" t="n">
-        <v>1.41143214444822</v>
+        <v>1086.97777777778</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>7.99999997450113</v>
+        <v>8.99999999976074</v>
       </c>
       <c r="F4" t="n">
-        <v>5.1236175163601</v>
+        <v>2.88011776251227</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0369463623660013</v>
+        <v>0.107937287254127</v>
       </c>
     </row>
   </sheetData>
